--- a/query_results/bc_gwas_with_mr_reviewed.xlsx
+++ b/query_results/bc_gwas_with_mr_reviewed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ny19205/Documents/Projects_IEU/epigraphdb_breast_cancer/query_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4EAF5336-88A2-E140-9BDD-4CFE125AD54C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A9BB42-C09E-DF48-94C0-21214736253F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="6740" yWindow="460" windowWidth="29840" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bc_gwas_with_mr_reviewed" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="112">
   <si>
     <t>gwas.trait</t>
   </si>
@@ -341,12 +341,27 @@
   </si>
   <si>
     <t>ukb-b-7643</t>
+  </si>
+  <si>
+    <t>NB something is wrong with this data: hight betas, very low pvals</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>13M</t>
+  </si>
+  <si>
+    <t>10.86M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -842,7 +857,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -851,6 +866,7 @@
     <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1205,8 +1221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1215,9 +1231,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1289,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1315,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1341,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +1367,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1375,8 +1392,11 @@
       <c r="H6" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1401,8 +1421,11 @@
       <c r="H7" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1427,8 +1450,11 @@
       <c r="H8" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +1480,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1506,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1532,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1532,7 +1558,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1557,8 +1583,11 @@
       <c r="H13">
         <v>2015</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1583,8 +1612,11 @@
       <c r="H14">
         <v>2017</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1613,7 +1645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2593,8 +2625,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I50">
-    <sortCondition descending="1" ref="D1:D50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
+    <sortCondition descending="1" ref="D1:D51"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
